--- a/outputs/screen_metrics.xlsx
+++ b/outputs/screen_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ithar\OneDrive\Documents\stock-screener-py-src-code\stock-screener-py\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56700AF7-4635-4152-B67D-34D0CA6503A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AA0DBF-9F45-4843-AFBE-FEA4E2C2D744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="1015">
   <si>
     <t>Ticker</t>
   </si>
@@ -3453,9 +3453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -17413,15 +17420,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="56.1796875" customWidth="1"/>
+    <col min="1" max="1" width="41.36328125" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="32.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="29.6328125" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -17449,209 +17462,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>847</v>
       </c>
       <c r="B2">
-        <v>1.9671999999999999E-2</v>
+        <v>2.496E-3</v>
       </c>
       <c r="C2">
-        <v>34541376.399999999</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>-1.5538179999999999</v>
+        <v>-0.69918999999999998</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>475</v>
-      </c>
-      <c r="B3">
-        <v>1.3814999999999999E-2</v>
-      </c>
-      <c r="C3">
-        <v>55526637.799999997</v>
-      </c>
-      <c r="D3">
-        <v>-1.918469</v>
-      </c>
-      <c r="E3">
-        <v>2.5</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>860</v>
-      </c>
-      <c r="B4">
-        <v>6.268E-2</v>
-      </c>
-      <c r="C4">
-        <v>10082.4</v>
-      </c>
-      <c r="D4">
-        <v>-0.118672</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>1.3577000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>12733065</v>
-      </c>
-      <c r="D5">
-        <v>-1.8510450000000001</v>
-      </c>
-      <c r="E5">
-        <v>3.75</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>8.7899999999999992E-3</v>
-      </c>
-      <c r="C6">
-        <v>8179877.4000000004</v>
-      </c>
-      <c r="D6">
-        <v>-1.9544779999999999</v>
-      </c>
-      <c r="E6">
-        <v>5.5</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7">
-        <v>1.2319E-2</v>
-      </c>
-      <c r="C7">
-        <v>395255.4</v>
-      </c>
-      <c r="D7">
-        <v>-0.27828700000000001</v>
-      </c>
-      <c r="E7">
-        <v>5.5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8">
-        <v>4.4229999999999998E-3</v>
-      </c>
-      <c r="C8">
-        <v>2899808.4</v>
-      </c>
-      <c r="D8">
-        <v>-1.021998</v>
-      </c>
-      <c r="E8">
-        <v>7.25</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>531</v>
-      </c>
-      <c r="B9">
-        <v>6.4060000000000002E-3</v>
-      </c>
-      <c r="C9">
-        <v>183566.6</v>
-      </c>
-      <c r="D9">
-        <v>-0.66472699999999996</v>
-      </c>
-      <c r="E9">
-        <v>7.25</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>542</v>
-      </c>
-      <c r="B10">
-        <v>3.3349999999999999E-3</v>
-      </c>
-      <c r="C10">
-        <v>1117509.2</v>
-      </c>
-      <c r="D10">
-        <v>-0.44597100000000001</v>
-      </c>
-      <c r="E10">
-        <v>8.25</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
